--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_110_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_110_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.9480802408559486, 6.583331714447621]</t>
+          <t>[5.958184713316786, 6.573227241986784]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.22760897918544476, 0.5629657337341589]</t>
+          <t>[0.22766536752404942, 0.5629093453955543]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.117769376996925e-05</v>
+        <v>2.106674012858356e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>2.117769376996925e-05</v>
+        <v>2.106674012858356e-05</v>
       </c>
       <c r="W2" t="n">
         <v>2.371371371371453</v>
